--- a/conejo/one_fictitious/formatted_data3.xlsx
+++ b/conejo/one_fictitious/formatted_data3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CCFB7E-FA8E-4EC5-9DAA-2E15FE768DDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F022F6-69DD-40BC-A308-B556F1275116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEC521B4-D99C-4515-9764-BC7AE95E6869}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DEC521B4-D99C-4515-9764-BC7AE95E6869}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E0BF66-B676-4C72-A5DE-62C144D957DF}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -4835,8 +4835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AAF0D5-8D43-4E98-A11B-61763F97DE77}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/conejo/one_fictitious/formatted_data3.xlsx
+++ b/conejo/one_fictitious/formatted_data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F022F6-69DD-40BC-A308-B556F1275116}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659EC4E4-6E86-4583-9396-52A6FF498B62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DEC521B4-D99C-4515-9764-BC7AE95E6869}"/>
   </bookViews>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E0BF66-B676-4C72-A5DE-62C144D957DF}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4836,7 +4836,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4887,37 +4887,37 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C2">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="D2">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F2">
         <v>11</v>
       </c>
       <c r="G2">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H2">
-        <v>1.2999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="I2">
-        <v>0.104</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="J2">
-        <v>0.218</v>
+        <v>0.20300000000000001</v>
       </c>
       <c r="K2">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <v>600</v>
@@ -4931,37 +4931,37 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>223</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F3">
         <v>11</v>
       </c>
       <c r="G3">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H3">
-        <v>1.2E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I3">
-        <v>9.7000000000000003E-2</v>
+        <v>0.104</v>
       </c>
       <c r="J3">
-        <v>0.20300000000000001</v>
+        <v>0.218</v>
       </c>
       <c r="K3">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="L3">
         <v>600</v>

--- a/conejo/one_fictitious/formatted_data3.xlsx
+++ b/conejo/one_fictitious/formatted_data3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\pyComms\conejo\one_fictitious\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B23637-DC4B-4C4C-9CCC-1130B4493C51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F54814-BE19-4053-A800-21D2A2402605}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="1680" windowWidth="16200" windowHeight="10200" activeTab="2" xr2:uid="{DEC521B4-D99C-4515-9764-BC7AE95E6869}"/>
+    <workbookView xWindow="9120" yWindow="2475" windowWidth="15720" windowHeight="12360" activeTab="1" xr2:uid="{DEC521B4-D99C-4515-9764-BC7AE95E6869}"/>
   </bookViews>
   <sheets>
     <sheet name="lines" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t>C1</t>
   </si>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>Tr pu</t>
-  </si>
-  <si>
-    <t>CB-1</t>
-  </si>
-  <si>
-    <t>CA-1</t>
   </si>
   <si>
     <t>Bus #</t>
@@ -2520,51 +2514,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DFC219-6BF2-4343-AAC9-533E33F63A09}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>60</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>63</v>
-      </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K1" t="s">
-        <v>65</v>
       </c>
       <c r="L1" t="s">
         <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2572,7 +2566,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2605,7 +2599,7 @@
         <v>67</v>
       </c>
       <c r="M2">
-        <v>1.0210999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2613,7 +2607,7 @@
         <v>301</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2646,7 +2640,7 @@
         <v>68</v>
       </c>
       <c r="M3">
-        <v>1.1254</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2654,7 +2648,7 @@
         <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2687,7 +2681,7 @@
         <v>69</v>
       </c>
       <c r="M4">
-        <v>1.1141000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2695,7 +2689,7 @@
         <v>301</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2728,7 +2722,7 @@
         <v>70</v>
       </c>
       <c r="M5">
-        <v>1.1016999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2736,7 +2730,7 @@
         <v>302</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2769,7 +2763,7 @@
         <v>71</v>
       </c>
       <c r="M6">
-        <v>1.0333000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2777,7 +2771,7 @@
         <v>302</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2810,7 +2804,7 @@
         <v>72</v>
       </c>
       <c r="M7">
-        <v>1.1564000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2818,7 +2812,7 @@
         <v>302</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2851,7 +2845,7 @@
         <v>73</v>
       </c>
       <c r="M8">
-        <v>1.1174999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2859,7 +2853,7 @@
         <v>302</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -2892,7 +2886,7 @@
         <v>74</v>
       </c>
       <c r="M9">
-        <v>1.085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2900,7 +2894,7 @@
         <v>307</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2933,7 +2927,7 @@
         <v>75</v>
       </c>
       <c r="M10">
-        <v>1.1011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2941,7 +2935,7 @@
         <v>307</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2974,7 +2968,7 @@
         <v>76</v>
       </c>
       <c r="M11">
-        <v>1.0869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2982,7 +2976,7 @@
         <v>307</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -3015,7 +3009,7 @@
         <v>77</v>
       </c>
       <c r="M12">
-        <v>1.0125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -3023,7 +3017,7 @@
         <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -3056,7 +3050,7 @@
         <v>78</v>
       </c>
       <c r="M13">
-        <v>1.0857000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -3064,7 +3058,7 @@
         <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -3097,7 +3091,7 @@
         <v>79</v>
       </c>
       <c r="M14">
-        <v>1.0584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -3105,7 +3099,7 @@
         <v>313</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -3138,7 +3132,7 @@
         <v>80</v>
       </c>
       <c r="M15">
-        <v>1.0509999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -3146,7 +3140,7 @@
         <v>314</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -3179,7 +3173,7 @@
         <v>81</v>
       </c>
       <c r="M16">
-        <v>1.0422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -3187,7 +3181,7 @@
         <v>315</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3220,7 +3214,7 @@
         <v>82</v>
       </c>
       <c r="M17">
-        <v>1.0732999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3228,7 +3222,7 @@
         <v>315</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3261,7 +3255,7 @@
         <v>83</v>
       </c>
       <c r="M18">
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -3269,7 +3263,7 @@
         <v>315</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -3302,7 +3296,7 @@
         <v>84</v>
       </c>
       <c r="M19">
-        <v>1.1482000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3310,7 +3304,7 @@
         <v>315</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -3343,7 +3337,7 @@
         <v>85</v>
       </c>
       <c r="M20">
-        <v>1.1259999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -3351,7 +3345,7 @@
         <v>315</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -3384,7 +3378,7 @@
         <v>86</v>
       </c>
       <c r="M21">
-        <v>1.099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -3392,7 +3386,7 @@
         <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -3425,7 +3419,7 @@
         <v>87</v>
       </c>
       <c r="M22">
-        <v>1.0983000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -3433,7 +3427,7 @@
         <v>316</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -3466,7 +3460,7 @@
         <v>88</v>
       </c>
       <c r="M23">
-        <v>1.0601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -3474,7 +3468,7 @@
         <v>318</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3507,7 +3501,7 @@
         <v>89</v>
       </c>
       <c r="M24">
-        <v>1.1509</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -3515,7 +3509,7 @@
         <v>321</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -3548,7 +3542,7 @@
         <v>90</v>
       </c>
       <c r="M25">
-        <v>1.0932999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -3556,7 +3550,7 @@
         <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3589,7 +3583,7 @@
         <v>91</v>
       </c>
       <c r="M26">
-        <v>1.0643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3597,7 +3591,7 @@
         <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -3630,7 +3624,7 @@
         <v>92</v>
       </c>
       <c r="M27">
-        <v>1.1676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3638,7 +3632,7 @@
         <v>322</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -3671,7 +3665,7 @@
         <v>93</v>
       </c>
       <c r="M28">
-        <v>1.0888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3679,7 +3673,7 @@
         <v>322</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -3712,7 +3706,7 @@
         <v>94</v>
       </c>
       <c r="M29">
-        <v>1.0705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3720,7 +3714,7 @@
         <v>322</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -3753,7 +3747,7 @@
         <v>95</v>
       </c>
       <c r="M30">
-        <v>1.0852999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3761,7 +3755,7 @@
         <v>322</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -3794,7 +3788,7 @@
         <v>96</v>
       </c>
       <c r="M31">
-        <v>1.0576000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3802,7 +3796,7 @@
         <v>323</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3835,7 +3829,7 @@
         <v>97</v>
       </c>
       <c r="M32">
-        <v>1.044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3843,7 +3837,7 @@
         <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -3876,7 +3870,7 @@
         <v>98</v>
       </c>
       <c r="M33">
-        <v>1.2262999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -3884,7 +3878,7 @@
         <v>323</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -3917,7 +3911,7 @@
         <v>99</v>
       </c>
       <c r="M34">
-        <v>1.1828000000000001</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3929,7 +3923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98EC2B6-03EC-4256-8C41-17207BB62D65}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
@@ -3937,37 +3931,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,7 +3969,7 @@
         <v>301</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -4010,7 +4004,7 @@
         <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4045,7 +4039,7 @@
         <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4080,7 +4074,7 @@
         <v>304</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4115,7 +4109,7 @@
         <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -4150,7 +4144,7 @@
         <v>306</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -4185,7 +4179,7 @@
         <v>307</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -4220,7 +4214,7 @@
         <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -4255,7 +4249,7 @@
         <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -4290,7 +4284,7 @@
         <v>310</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -4325,7 +4319,7 @@
         <v>311</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4360,7 +4354,7 @@
         <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4395,7 +4389,7 @@
         <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -4430,7 +4424,7 @@
         <v>314</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -4465,7 +4459,7 @@
         <v>315</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -4500,7 +4494,7 @@
         <v>316</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -4535,7 +4529,7 @@
         <v>317</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4570,7 +4564,7 @@
         <v>318</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -4605,7 +4599,7 @@
         <v>319</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4640,7 +4634,7 @@
         <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4675,7 +4669,7 @@
         <v>321</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -4710,7 +4704,7 @@
         <v>322</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -4745,7 +4739,7 @@
         <v>323</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -4780,7 +4774,7 @@
         <v>324</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -4815,7 +4809,7 @@
         <v>325</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4852,10 +4846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AAF0D5-8D43-4E98-A11B-61763F97DE77}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4904,94 +4898,6 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2">
-        <v>325</v>
-      </c>
-      <c r="C2">
-        <v>121</v>
-      </c>
-      <c r="D2">
-        <v>67</v>
-      </c>
-      <c r="E2">
-        <v>0.52</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>1.6</v>
-      </c>
-      <c r="H2">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I2">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="J2">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="K2">
-        <v>500</v>
-      </c>
-      <c r="L2">
-        <v>600</v>
-      </c>
-      <c r="M2">
-        <v>625</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>318</v>
-      </c>
-      <c r="C3">
-        <v>223</v>
-      </c>
-      <c r="D3">
-        <v>72</v>
-      </c>
-      <c r="E3">
-        <v>0.53</v>
-      </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <v>1.8</v>
-      </c>
-      <c r="H3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.104</v>
-      </c>
-      <c r="J3">
-        <v>0.218</v>
-      </c>
-      <c r="K3">
-        <v>500</v>
-      </c>
-      <c r="L3">
-        <v>600</v>
-      </c>
-      <c r="M3">
-        <v>625</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
